--- a/biology/Zoologie/Ernietta/Ernietta.xlsx
+++ b/biology/Zoologie/Ernietta/Ernietta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernietta est un genre éteint d'erniettomorphes de la famille des Erniettidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernietta est un genre éteint d'erniettomorphes de la famille des Erniettidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution et époque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet animal très primitif a été découvert au comté de Nye, aux États-Unis. Il vivait durant la période de l'Édiacarien[1], [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet animal très primitif a été découvert au comté de Nye, aux États-Unis. Il vivait durant la période de l'Édiacarien, .
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1966 par le naturaliste Hans D. Pflug[1].
-Liste des espèces
-Les espèces selon Paleobiology Database                   (1er mars 2014)[3] sont :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1966 par le naturaliste Hans D. Pflug.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ernietta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernietta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les espèces selon Paleobiology Database                   (1er mars 2014) sont :
 † Ernietta plateauensis Pflug, 1966 ;
 † Ernietta tschanabis Pflug, 1972.
 Auxquelles est parfois ajoutée :
